--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -3164,7 +3164,11 @@
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>test synonym</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="inlineStr"/>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
@@ -3193,7 +3197,7 @@
       <c r="U47" s="2" t="inlineStr"/>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; NB</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>study arm</t>
+          <t>test synonym</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1232,7 +1232,7 @@
       <c r="U13" s="2" t="inlineStr"/>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; NB</t>
         </is>
       </c>
     </row>
